--- a/data/tasks.xlsx
+++ b/data/tasks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Details</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Status Updated At</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,12 +491,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Test Task</t>
+          <t>Test Task
+[2025-06-13 10:07:08] Status changed from 'Assigned' to 'In Progress': Ongoing task
+[2025-06-13 10:19:02] Status changed from 'In Progress' to 'Completed': Finished Task</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-06-13 10:19:02</t>
         </is>
       </c>
     </row>
